--- a/347-préparation-de-la-release-406/ig/StructureDefinition-esms-task.xlsx
+++ b/347-préparation-de-la-release-406/ig/StructureDefinition-esms-task.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.5</t>
+    <t>4.0.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-15T12:52:41+00:00</t>
+    <t>2025-12-15T13:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
